--- a/apps/home/invest/carteira.xlsx
+++ b/apps/home/invest/carteira.xlsx
@@ -179,10 +179,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -268,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,6 +294,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -312,8 +317,8 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,10 +389,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -423,10 +430,12 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -475,10 +484,12 @@
         <v>14</v>
       </c>
       <c r="C12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="n">
         <v>1.5</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -488,10 +499,12 @@
         <v>15</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -500,7 +513,7 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D14" s="3"/>
@@ -513,7 +526,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="6" t="n">
         <v>10</v>
       </c>
       <c r="D15" s="3"/>
@@ -526,7 +539,7 @@
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D16" s="3"/>
@@ -539,8 +552,8 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>5</v>
+      <c r="C17" s="6" t="n">
+        <v>7.5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -552,11 +565,13 @@
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -565,7 +580,7 @@
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="D19" s="3"/>
@@ -578,7 +593,7 @@
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="3"/>
@@ -591,7 +606,7 @@
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="3"/>
@@ -604,7 +619,7 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="3"/>
@@ -617,7 +632,7 @@
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="3"/>
@@ -682,7 +697,7 @@
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="6" t="n">
         <v>8.5</v>
       </c>
       <c r="D28" s="3"/>
@@ -695,7 +710,7 @@
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="3"/>
@@ -708,7 +723,7 @@
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="D30" s="3"/>
@@ -721,7 +736,7 @@
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="D31" s="3"/>
@@ -734,7 +749,7 @@
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="3"/>
@@ -747,7 +762,7 @@
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="D33" s="3"/>
@@ -760,7 +775,7 @@
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D34" s="3"/>
@@ -773,7 +788,7 @@
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="3"/>
@@ -786,7 +801,7 @@
       <c r="B36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D36" s="3"/>
@@ -799,7 +814,7 @@
       <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="3"/>
@@ -812,7 +827,7 @@
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="3"/>
@@ -825,7 +840,7 @@
       <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="D39" s="3"/>
@@ -851,7 +866,7 @@
       <c r="B41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="D41" s="3"/>
